--- a/budget/third-batch-available-funding.xlsx
+++ b/budget/third-batch-available-funding.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/advance-trauma-trial/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0257A4-3094-144D-9DEE-203190379102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39B507A-20CB-CF40-88E8-D7D1635B9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{752AB9D1-0F11-6D41-A13D-18D549573EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Grants</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>Total available after OH</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Project grant from SLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding available for project costs from ALF grant </t>
+  </si>
+  <si>
+    <t>Remaining funds from 7550000 VR grant after salary and planned invoices from TGI for batch 1 and 2 have been accounted for</t>
+  </si>
+  <si>
+    <t>15% of salary per year for 3 years</t>
+  </si>
+  <si>
+    <t>Total salary remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total available if salary included </t>
   </si>
 </sst>
 </file>
@@ -429,37 +450,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E358D675-9E66-5545-B1BC-786C93D43A1C}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>200000*1.1254*3</f>
-        <v>675240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f>200000*1.254*3</f>
+        <v>752400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -467,8 +497,11 @@
         <f>1250000/2</f>
         <v>625000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -476,23 +509,44 @@
         <f>7550000-(510000*5)-(3710000*1.254)</f>
         <v>347660</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B5)</f>
-        <v>1997900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2075060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <f>B6/1.254</f>
-        <v>1593221.6905901115</v>
+        <v>1654752.7910685805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f>510000*5-B2-(B2/3*2)</f>
+        <v>1296000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>(B6+B9)/1.254</f>
+        <v>2688245.6140350876</v>
       </c>
     </row>
   </sheetData>
